--- a/AdvA7/src/test/resources/testData.xlsx
+++ b/AdvA7/src/test/resources/testData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AFC7733B-30A5-4CCA-B5FF-CBEC17FC1D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organisation" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,8 @@
     <sheet name="product" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,16 +392,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,16 +412,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -430,16 +432,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -450,16 +452,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -470,21 +472,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -495,7 +497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -506,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -517,14 +519,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
